--- a/biology/Zoologie/Brachythele_denieri/Brachythele_denieri.xlsx
+++ b/biology/Zoologie/Brachythele_denieri/Brachythele_denieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachythele denieri est une espèce d'araignées mygalomorphes de la famille des Nemesiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachythele denieri est une espèce d'araignées mygalomorphes de la famille des Nemesiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Grèce et en Bulgarie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Grèce et en Bulgarie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 10,5 mm[2].
-La femelle décrite par Fage en 1921 mesure 18 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 10,5 mm.
+La femelle décrite par Fage en 1921 mesure 18 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Nemesia denieri par Simon en 1916. Elle est placée dans le genre Nemesiothele par Fage en 1921[3] puis dans le genre Brachythele par Raven en 1985[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Nemesia denieri par Simon en 1916. Elle est placée dans le genre Nemesiothele par Fage en 1921 puis dans le genre Brachythele par Raven en 1985.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pierre Denier[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Pierre Denier.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1916 : Liste des arachnides recueillis à Salonique pendant l'occupation française (1916) par le sergent Pierre Denier, membre de la Société. Annales de la Société Entomologique de France, vol. 85, p. 273-276 (texte intégral).</t>
         </is>
